--- a/ML Project Governance Framework.xlsx
+++ b/ML Project Governance Framework.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Talks\ML Project Governance Framework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{533D5859-C3FB-4EB5-A8D4-A72FC2CD5198}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E45DB51-327B-4401-8B84-7166271A1D8A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{DA3D3E90-2B9F-433A-AD58-1BA421E9C858}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="67">
   <si>
     <t>Reference: https://www.luminovo.ai/</t>
   </si>
@@ -248,12 +248,18 @@
   <si>
     <t xml:space="preserve">ML Project Governance Framework is a framework that can be followed by any new Data Science business or team. It will help in formulating strategies around how to use Data Science as a business, how to architect Data Science based solutions and team formation strategy, typical Data Science project lifecycle components, commonly available Deep Learning toolsets and frameworks and best practices used by Data Scientists. </t>
   </si>
+  <si>
+    <t>https://github.com/indranildchandra/ml-project-governance-framework</t>
+  </si>
+  <si>
+    <t>Reference</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -281,6 +287,14 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -318,10 +332,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -366,8 +381,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -845,7 +863,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEE7B67F-9103-4766-8D42-2CF7AD0C6D34}">
-  <dimension ref="A3:B3"/>
+  <dimension ref="A3:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
@@ -865,7 +883,18 @@
         <v>64</v>
       </c>
     </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>65</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId1" xr:uid="{DCA806E4-5CA6-41F8-8247-242DBD8274C8}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/ML Project Governance Framework.xlsx
+++ b/ML Project Governance Framework.xlsx
@@ -1,24 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Talks\ML Project Governance Framework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E45DB51-327B-4401-8B84-7166271A1D8A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE1836A0-F8F4-40F2-8845-26CC3C8325A1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{DA3D3E90-2B9F-433A-AD58-1BA421E9C858}"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="6" r:id="rId1"/>
     <sheet name="Data Science as a Business" sheetId="3" r:id="rId2"/>
-    <sheet name="Data Science Solution Plan" sheetId="5" r:id="rId3"/>
-    <sheet name="ML Project Lifecycle Phases" sheetId="1" r:id="rId4"/>
-    <sheet name="DL Toolsets and Frameworks" sheetId="2" r:id="rId5"/>
-    <sheet name="Data Science - Best Practices" sheetId="4" r:id="rId6"/>
+    <sheet name="Defining ROI" sheetId="7" r:id="rId3"/>
+    <sheet name="ROI Calculation Worksheet 1" sheetId="8" r:id="rId4"/>
+    <sheet name="ROI Calculation Worksheet 2" sheetId="9" r:id="rId5"/>
+    <sheet name="ROI Calculation Worksheet 3" sheetId="10" r:id="rId6"/>
+    <sheet name="Data Science Solution Plan" sheetId="5" r:id="rId7"/>
+    <sheet name="ML Project Lifecycle Phases" sheetId="1" r:id="rId8"/>
+    <sheet name="DL Toolsets and Frameworks" sheetId="2" r:id="rId9"/>
+    <sheet name="Data Science - Best Practices" sheetId="4" r:id="rId10"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -30,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="166">
   <si>
     <t>Reference: https://www.luminovo.ai/</t>
   </si>
@@ -105,9 +109,6 @@
   </si>
   <si>
     <t>Do not store your data as csv or pickle file</t>
-  </si>
-  <si>
-    <t>Use pycharm and/or spyder.</t>
   </si>
   <si>
     <t>Do not use Jupyter Notebooks for writing production grade code</t>
@@ -239,27 +240,435 @@
     <t>Software Engineer and DevOps Engineer</t>
   </si>
   <si>
+    <t>ML Project Governance Framework</t>
+  </si>
+  <si>
     <t xml:space="preserve">1 Software Engineer with prior experience in building web based solutions (building REST APIs, authentication, etc.). 
-1 DevOps Engineer with hands-on knowledge of all DevOps related components including containerization (Docker), container orchestration (Kubernetes), continous integration (Jenkins), continous deployment, Infrastructure-as-a-Service and cloud platforms (AWS/GCP/Azure Cloud). </t>
-  </si>
-  <si>
-    <t>ML Project Governance Framework</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ML Project Governance Framework is a framework that can be followed by any new Data Science business or team. It will help in formulating strategies around how to use Data Science as a business, how to architect Data Science based solutions and team formation strategy, typical Data Science project lifecycle components, commonly available Deep Learning toolsets and frameworks and best practices used by Data Scientists. </t>
-  </si>
-  <si>
-    <t>https://github.com/indranildchandra/ml-project-governance-framework</t>
-  </si>
-  <si>
-    <t>Reference</t>
+1 DevOps Engineer with hands-on knowledge of all DevOps related components including containerization (Docker), container orchestration (Kubernetes), continous integration (Jenkins, Travis CI), continous deployment, Infrastructure-as-a-Service and cloud platforms (AWS/GCP/Azure Cloud). </t>
+  </si>
+  <si>
+    <t>https://github.com/indranildchandra/ML-Project-Governance-Framework</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference: https://www.kdnuggets.com/2019/04/top-10-coding-mistakes-data-scientists.html </t>
+  </si>
+  <si>
+    <t>Why is ROI important?</t>
+  </si>
+  <si>
+    <t>A recent Gartner press release says global IT spending is set to reach $3.7 trillion in 2018. It goes on to state, “Looking at some of the key areas driving spending over the next few years, Gartner forecasts $2.9 trillion in new business value opportunities attributable to AI by 2021, as well as the ability to recover 6.2 billion hours of worker productivity.” 
+Yet without hard numbers pointing to success, it is difficult for executives to continue to invest hundreds of thousands (or millions) of dollars on the latest data efforts. Indeed, any enterprise that has a data team, it seems, is reevaluating their productivity and return on investment (ROI). And anyone looking to spin up a new data division is doing their homework first, closely examining costs and potential ROI before diving in.</t>
+  </si>
+  <si>
+    <t>Challenges in calculating ROI:</t>
+  </si>
+  <si>
+    <t>Non-tangible factors to consider:</t>
+  </si>
+  <si>
+    <t>Correlate ROI with tools and technologies:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It’s often difficult to isolate the contribution of data alone to improvements, especially larger business outcomes (like higher profit margins, lower costs, etc.). </t>
+  </si>
+  <si>
+    <t>The calculation is complicated because the value isn’t all in one number - it can be spread across multiple departments and teams.</t>
+  </si>
+  <si>
+    <t>Success Means Greater Team Efficiency</t>
+  </si>
+  <si>
+    <t>Tangible ways to measure Data Science Project ROI/Success:</t>
+  </si>
+  <si>
+    <t>Often one of the biggest costs when it comes to really ramping up the velocity of data projects or building a data team are the tools and technology required to thrive. This can be a difficult investment because it’s inherently difficult to calculate ROI for tools of any kind, but on top of that, data science tools are relatively new, so it’s not necessarily globally accepted that they’re critical (unlike, say, a CRM, which most businesses would use without question). Add that on top of the aforementioned challenges of calculating the ROI of data projects more broadly, and things get complicated quickly. 
+3 worksheets are attached illustrating how three different businesses might choose to calculate ROI for their data science tools investment.</t>
+  </si>
+  <si>
+    <t>After onboarding Data Science Tool</t>
+  </si>
+  <si>
+    <t>Before onboarding Data Science Tool</t>
+  </si>
+  <si>
+    <t>Time to Production (# of months):</t>
+  </si>
+  <si>
+    <t>Number of Data Scientists in the team:</t>
+  </si>
+  <si>
+    <t>Effective number of Data Scientists in the team after producitivity gain:</t>
+  </si>
+  <si>
+    <t>(input)</t>
+  </si>
+  <si>
+    <t>CTC of each Data Scientist:</t>
+  </si>
+  <si>
+    <t>Value provided by each Data Scientist to the business:</t>
+  </si>
+  <si>
+    <t>Profit margin per employee before tool onboarding:</t>
+  </si>
+  <si>
+    <t>Note: This parameter may be difficult to calculate in case of evaluation of a relatively new tool in the market.</t>
+  </si>
+  <si>
+    <t>% Reduction in time to production:</t>
+  </si>
+  <si>
+    <t>Success Means Faster Model Deployment</t>
+  </si>
+  <si>
+    <t>Time to Production (# of months, includes time for model validation and audit):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimum annual payback for putting a model into production 
+(increased revenue, profitability, or savings): </t>
+  </si>
+  <si>
+    <t>Net benefit per model by delivering it in less time:</t>
+  </si>
+  <si>
+    <t>Incremental benefit per team from increased number of projects delivered overall:</t>
+  </si>
+  <si>
+    <t>Productivity Gain per team member:</t>
+  </si>
+  <si>
+    <t>Savings on spending on staff per team:</t>
+  </si>
+  <si>
+    <t>Boost in profit margin per employee after productivity gain:</t>
+  </si>
+  <si>
+    <t>Cost per year (salary and benefits) per employee:</t>
+  </si>
+  <si>
+    <t>Assumed % increase in productivity of the team:</t>
+  </si>
+  <si>
+    <t>Total Savings:</t>
+  </si>
+  <si>
+    <t>(1 - C6/C5)*100</t>
+  </si>
+  <si>
+    <t>C12*C11%</t>
+  </si>
+  <si>
+    <t>C15 + (C15*C11%)</t>
+  </si>
+  <si>
+    <t>(C16-C15)*C12</t>
+  </si>
+  <si>
+    <t>C20-C19</t>
+  </si>
+  <si>
+    <t>(C20*(100 + C11)%)-C19</t>
+  </si>
+  <si>
+    <t>C17+C22</t>
+  </si>
+  <si>
+    <t>(calculated)</t>
+  </si>
+  <si>
+    <t>(C7/12) * (C5-C6)</t>
+  </si>
+  <si>
+    <t>C8*(C5-C6)</t>
+  </si>
+  <si>
+    <t>C8+C9+C13</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The Risk of Non-Compliance: 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Not investing in data science more broadly or a data science platform specifically can increase the chances of a catastrophic public relations issue (such as a large data breach) or fines due to regulatory non-compliance (like the EU General Data Protection Regulation - GDPR - for example).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Effect on Revenue: 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>How is the Data Science project affecting the number of customers, spend per customer, etc.?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Effect on Operational Costs: 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Is the Data Science project resulting in direct or indirect cost savings?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Competitive Edge:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+Is the Data Science project bringing something to the business that differentiates it from the competition?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Speed-to-Value: 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>How can the ability of the Data team to deliver more projects in relatively shorter period of time be quantified?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Team Efficiency: 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>What is the effective gain (or savings in operational costs) by making the Data team more efficient at work?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The Cost of Disruption:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Data-savvy companies are shaking up every industry, so it’s important to consider what the business might be losing by not being the first one and the most innovative one in the space when it comes to machine learning, deep learning, artificial intelligence, etc. Or, at the very least, it’s important to start considering ways to become data-driven so that even if your business isn’t the first in the industry to do so, it also won’t be the last to jump on board. Staff turnover is also a factor here - talented staff might move on to other more cutting-edge companies.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The value of Digital Maturity:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Today, customers often place more trust in companies that have a high digital maturity, providing more personal information or making more purchases as a result of this trust. The use of data science platforms put enterprises at the forefront of the big data era when it comes to both innovation and data governance, which is more likely to result in this consumer trust (though customer fear of becoming a “product” by providing their data is also a reality).</t>
+    </r>
+  </si>
+  <si>
+    <t>Success Means Unlocked Opportunity Cost</t>
+  </si>
+  <si>
+    <t>Number of prioritized projects delivered by the team per year before tool onboarding:</t>
+  </si>
+  <si>
+    <t>C6*C5</t>
+  </si>
+  <si>
+    <t>Assumed % reduce in time to prodution:</t>
+  </si>
+  <si>
+    <t>C5+(C5*50%)</t>
+  </si>
+  <si>
+    <t>C9*C6</t>
+  </si>
+  <si>
+    <t>C10-C7</t>
+  </si>
+  <si>
+    <t>Effective number of prioritized projects that can be delivered after tool onboarding:</t>
+  </si>
+  <si>
+    <t>Profit to the company for delivering prioritized projects before tool onboarding:</t>
+  </si>
+  <si>
+    <t>Benefit of Investment:</t>
+  </si>
+  <si>
+    <t>C11</t>
+  </si>
+  <si>
+    <t>Profit to the company for delivering more prioritized projects after tool onboarding:</t>
+  </si>
+  <si>
+    <t>Reference: http://dataiku.instantmagazine.com/white-papers-and-guidebooks/data-science-roi/</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>Use Pycharm and/or Spyder.</t>
+  </si>
+  <si>
+    <t>GitHub Link</t>
+  </si>
+  <si>
+    <t>View Business as a Machine</t>
+  </si>
+  <si>
+    <t>Understand the Drivers</t>
+  </si>
+  <si>
+    <t>Measure the Drivers</t>
+  </si>
+  <si>
+    <t>Uncover Problems and Opportunities</t>
+  </si>
+  <si>
+    <t>Build Algorithms</t>
+  </si>
+  <si>
+    <t>Measure Results</t>
+  </si>
+  <si>
+    <t>Report Financial Impact</t>
+  </si>
+  <si>
+    <t>Isolate business unit.</t>
+  </si>
+  <si>
+    <t>Define objectives. Define machine in terms of people and processes.</t>
+  </si>
+  <si>
+    <t>Collect outcomes in terms of feedbacks. Feedback identifies problems.</t>
+  </si>
+  <si>
+    <t>Investigate if objectives are being met.</t>
+  </si>
+  <si>
+    <t>Synthesize outcomes.</t>
+  </si>
+  <si>
+    <t>Hypothesize outcomes.</t>
+  </si>
+  <si>
+    <t>Collect data.</t>
+  </si>
+  <si>
+    <t>Develop KPIs.</t>
+  </si>
+  <si>
+    <t>Evaluate Performance vs KPIs.</t>
+  </si>
+  <si>
+    <t>Highlight potential problem areas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Review process and consider what could be missed or needed to answer questions. </t>
+  </si>
+  <si>
+    <t>Develop algorithms to predict and explain the problem.</t>
+  </si>
+  <si>
+    <t>Tie financial value of individual decisions to optimize for profit.</t>
+  </si>
+  <si>
+    <t>Use recommendation algorithms to improve decisions.</t>
+  </si>
+  <si>
+    <t>Capture outcomes after decision making system is implemented.</t>
+  </si>
+  <si>
+    <t>Synthesize results in terms of good and bad outcomes identifying what was done and what happened.</t>
+  </si>
+  <si>
+    <t>Visualize outcomes over time to determine progress.</t>
+  </si>
+  <si>
+    <t>Measure actual results.</t>
+  </si>
+  <si>
+    <t>Tie to financial benefits.</t>
+  </si>
+  <si>
+    <t>Report financial benefit of algorithms to key stakeholders.</t>
+  </si>
+  <si>
+    <t>Define Return-on-Investment (ROI)</t>
+  </si>
+  <si>
+    <t>Data Understanding</t>
+  </si>
+  <si>
+    <t>Data Preparation</t>
+  </si>
+  <si>
+    <t>Evaluation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ML Project Governance Framework is a framework that can be followed by any new Data Science business or team. It will help in formulating strategies around how to use Data Science as a business, how to architect Data Science based solutions and team formation strategy, ROI calulation approaches, typical Data Science project lifecycle components, commonly available Deep Learning toolsets and frameworks and best practices used by Data Scientists. </t>
+  </si>
+  <si>
+    <t>One logical question after working out how to calculate ROI, no matter the results of that calculation, is: how can the business increase ROI from data science tools, platforms, technologies, projects and initiatives? 
+The fact is that simply purchasing a tool or hiring a team to do data science will not magically bring ROI - there is no silver bullet. It takes organization change throughout (from high-level management down to each individual contributor) to get value from data.</t>
+  </si>
+  <si>
+    <t>How to increase ROI?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -271,14 +680,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="22"/>
-      <color theme="4"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -299,16 +700,67 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -331,18 +783,74 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -354,35 +862,109 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -403,54 +985,995 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>105896</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Arrow: Right 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E087BC0D-40CA-4F04-9BE0-77B2AF8B70F8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC8419F3-21B8-4536-8F11-5FB3F08FB669}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="619125" y="200025"/>
+          <a:ext cx="3600450" cy="1524000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-IN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>600074</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Arrow: Right 5">
           <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A5D0161-20DE-4291-9E95-274757924C07}"/>
             </a:ext>
           </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="333375" y="123825"/>
-          <a:ext cx="10058400" cy="6840071"/>
+          <a:off x="4819649" y="190500"/>
+          <a:ext cx="3648075" cy="1524000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-IN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Arrow: Right 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF9EE79C-9F9E-4D26-80DD-A9F02B75B6FB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9086850" y="190500"/>
+          <a:ext cx="3648075" cy="1524000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-IN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Arrow: Right 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D60DB65A-59F8-4D56-98C6-ECD84BED9DE2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13354050" y="190500"/>
+          <a:ext cx="3648075" cy="1524000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-IN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Arrow: Right 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E54E8A63-895A-45B9-BD14-CE3827D527A7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17883188" y="190500"/>
+          <a:ext cx="3705225" cy="1524000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-IN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Arrow: Right 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05A99B29-96B6-47C0-A652-CFA86A9E91E7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22217063" y="190500"/>
+          <a:ext cx="3705225" cy="1524000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-IN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Arrow: Right 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D676859-D825-458E-B3E7-10F80C97B904}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="26550938" y="190500"/>
+          <a:ext cx="3705225" cy="1524000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-IN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Rectangle 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DC2E6E6-520F-4267-AABC-3832BF1F799F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13354050" y="4229100"/>
+          <a:ext cx="3057525" cy="581025"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
       </xdr:spPr>
-    </xdr:pic>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-IN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="Arrow: Left-Right 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D78AB88-EBAE-4195-8CB8-38B286349AD1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="5229225"/>
+          <a:ext cx="15773400" cy="733425"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftRightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-IN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="Arrow: Left-Right 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCC0EC21-81E6-4198-A8F1-E8CE9DADF072}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="6343650"/>
+          <a:ext cx="15773400" cy="733425"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftRightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-IN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="Arrow: Left-Right 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE9E2C07-C3B2-4D24-8E6B-CED973912BAE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="5210175"/>
+          <a:ext cx="15773400" cy="733425"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftRightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-IN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>50008</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>35720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>154781</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="Arrow: Left-Right 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6E3EE0D-CB26-46C3-9676-FCACED0C3E68}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13349289" y="7524751"/>
+          <a:ext cx="7843836" cy="690561"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftRightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-IN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>35720</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>21433</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>592931</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>140494</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="Arrow: Left-Right 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65E9026C-6D1F-497F-991E-94CC3ACA690C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13335001" y="8653464"/>
+          <a:ext cx="7843836" cy="690561"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftRightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-IN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>604838</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>42864</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>595312</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="Arrow: Left-Right 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB7DA9C9-5788-4239-9EFD-7396E5A21987}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17547432" y="9817895"/>
+          <a:ext cx="7884318" cy="690561"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftRightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-IN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>42863</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>-1</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="Arrow: Left-Right 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A05B0F91-34DB-4A72-BAD0-7CADF2F18681}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21843207" y="11041857"/>
+          <a:ext cx="7850980" cy="785811"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftRightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-IN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>130968</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>11905</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>178594</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="Rectangle: Rounded Corners 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19A3E0E2-30F8-4460-ADE5-E1B35C73F139}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="130968" y="71437"/>
+          <a:ext cx="30182343" cy="4929188"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-IN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -463,13 +1986,13 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>47277</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>123477</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -498,7 +2021,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="657225" y="657225"/>
+          <a:off x="657225" y="609600"/>
           <a:ext cx="10058400" cy="4447827"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -863,330 +2386,2196 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEE7B67F-9103-4766-8D42-2CF7AD0C6D34}">
-  <dimension ref="A3:B4"/>
+  <dimension ref="B3:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="126.7109375" customWidth="1"/>
+    <col min="1" max="1" width="8" customWidth="1"/>
+    <col min="2" max="2" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="107" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+    <row r="3" spans="2:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="B3" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="C4" s="24" t="s">
         <v>63</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>65</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1" xr:uid="{DCA806E4-5CA6-41F8-8247-242DBD8274C8}"/>
+    <hyperlink ref="C4" r:id="rId1" xr:uid="{DCA806E4-5CA6-41F8-8247-242DBD8274C8}"/>
   </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E08E8A1-BC03-4FEE-8C08-01F96F3185D5}">
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="8" style="3" customWidth="1"/>
+    <col min="3" max="3" width="45.7109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="93.28515625" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:4" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="44"/>
+      <c r="D2" s="45"/>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D3" s="4"/>
+    </row>
+    <row r="4" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B5" s="5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="5">
+        <v>2</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B7" s="5">
+        <v>3</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B8" s="5">
+        <v>4</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B9" s="5">
+        <v>5</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B10" s="5">
+        <v>6</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B11" s="5">
+        <v>7</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B12" s="5">
+        <v>8</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B13" s="5">
+        <v>9</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B14" s="5">
+        <v>10</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D15" s="4"/>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D16" s="4"/>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D17" s="4"/>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D18" s="4"/>
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D19" s="4"/>
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D20" s="4"/>
+    </row>
+    <row r="21" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D21" s="4"/>
+    </row>
+    <row r="22" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D22" s="4"/>
+    </row>
+    <row r="23" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D23" s="4"/>
+    </row>
+    <row r="24" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D24" s="4"/>
+    </row>
+    <row r="25" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D25" s="33" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:D2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE6F7C48-8164-4DF1-B2C3-82E50212DFBC}">
-  <dimension ref="G40"/>
+  <dimension ref="B5:AW61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="50.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.28515625" customWidth="1"/>
     <col min="8" max="8" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="40" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G40" s="3" t="s">
+    <row r="5" spans="2:49" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="36" t="s">
+        <v>132</v>
+      </c>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="I5" s="36" t="s">
+        <v>133</v>
+      </c>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="36"/>
+      <c r="M5" s="36"/>
+      <c r="P5" s="36" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q5" s="36"/>
+      <c r="R5" s="36"/>
+      <c r="S5" s="36"/>
+      <c r="T5" s="36"/>
+      <c r="W5" s="36" t="s">
+        <v>135</v>
+      </c>
+      <c r="X5" s="36"/>
+      <c r="Y5" s="36"/>
+      <c r="Z5" s="36"/>
+      <c r="AA5" s="36"/>
+      <c r="AD5" s="36" t="s">
+        <v>136</v>
+      </c>
+      <c r="AE5" s="36"/>
+      <c r="AF5" s="36"/>
+      <c r="AG5" s="36"/>
+      <c r="AH5" s="36"/>
+      <c r="AK5" s="36" t="s">
+        <v>137</v>
+      </c>
+      <c r="AL5" s="36"/>
+      <c r="AM5" s="36"/>
+      <c r="AN5" s="36"/>
+      <c r="AO5" s="36"/>
+      <c r="AR5" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="AS5" s="36"/>
+      <c r="AT5" s="36"/>
+      <c r="AU5" s="36"/>
+      <c r="AV5" s="36"/>
+    </row>
+    <row r="6" spans="2:49" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="36"/>
+      <c r="P6" s="36"/>
+      <c r="Q6" s="36"/>
+      <c r="R6" s="36"/>
+      <c r="S6" s="36"/>
+      <c r="T6" s="36"/>
+      <c r="W6" s="36"/>
+      <c r="X6" s="36"/>
+      <c r="Y6" s="36"/>
+      <c r="Z6" s="36"/>
+      <c r="AA6" s="36"/>
+      <c r="AD6" s="36"/>
+      <c r="AE6" s="36"/>
+      <c r="AF6" s="36"/>
+      <c r="AG6" s="36"/>
+      <c r="AH6" s="36"/>
+      <c r="AK6" s="36"/>
+      <c r="AL6" s="36"/>
+      <c r="AM6" s="36"/>
+      <c r="AN6" s="36"/>
+      <c r="AO6" s="36"/>
+      <c r="AR6" s="36"/>
+      <c r="AS6" s="36"/>
+      <c r="AT6" s="36"/>
+      <c r="AU6" s="36"/>
+      <c r="AV6" s="36"/>
+    </row>
+    <row r="11" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B11" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="I11" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="J11" s="38"/>
+      <c r="K11" s="38"/>
+      <c r="L11" s="38"/>
+      <c r="M11" s="38"/>
+      <c r="N11" s="38"/>
+      <c r="P11" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q11" s="38"/>
+      <c r="R11" s="38"/>
+      <c r="S11" s="38"/>
+      <c r="T11" s="38"/>
+      <c r="U11" s="38"/>
+      <c r="W11" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="X11" s="38"/>
+      <c r="Y11" s="38"/>
+      <c r="Z11" s="38"/>
+      <c r="AA11" s="38"/>
+      <c r="AB11" s="38"/>
+      <c r="AD11" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE11" s="38"/>
+      <c r="AF11" s="38"/>
+      <c r="AG11" s="38"/>
+      <c r="AH11" s="38"/>
+      <c r="AI11" s="38"/>
+      <c r="AK11" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="AL11" s="38"/>
+      <c r="AM11" s="38"/>
+      <c r="AN11" s="38"/>
+      <c r="AO11" s="38"/>
+      <c r="AP11" s="38"/>
+      <c r="AR11" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="AS11" s="38"/>
+      <c r="AT11" s="38"/>
+      <c r="AU11" s="38"/>
+      <c r="AV11" s="38"/>
+      <c r="AW11" s="38"/>
+    </row>
+    <row r="12" spans="2:49" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
+      <c r="I12" s="39" t="s">
+        <v>142</v>
+      </c>
+      <c r="J12" s="39"/>
+      <c r="K12" s="39"/>
+      <c r="L12" s="39"/>
+      <c r="M12" s="39"/>
+      <c r="N12" s="39"/>
+      <c r="P12" s="39" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q12" s="39"/>
+      <c r="R12" s="39"/>
+      <c r="S12" s="39"/>
+      <c r="T12" s="39"/>
+      <c r="U12" s="39"/>
+      <c r="W12" s="39" t="s">
+        <v>147</v>
+      </c>
+      <c r="X12" s="39"/>
+      <c r="Y12" s="39"/>
+      <c r="Z12" s="39"/>
+      <c r="AA12" s="39"/>
+      <c r="AB12" s="39"/>
+      <c r="AD12" s="39" t="s">
+        <v>150</v>
+      </c>
+      <c r="AE12" s="39"/>
+      <c r="AF12" s="39"/>
+      <c r="AG12" s="39"/>
+      <c r="AH12" s="39"/>
+      <c r="AI12" s="39"/>
+      <c r="AK12" s="39" t="s">
+        <v>153</v>
+      </c>
+      <c r="AL12" s="39"/>
+      <c r="AM12" s="39"/>
+      <c r="AN12" s="39"/>
+      <c r="AO12" s="39"/>
+      <c r="AP12" s="39"/>
+      <c r="AR12" s="39" t="s">
+        <v>156</v>
+      </c>
+      <c r="AS12" s="39"/>
+      <c r="AT12" s="39"/>
+      <c r="AU12" s="39"/>
+      <c r="AV12" s="39"/>
+      <c r="AW12" s="39"/>
+    </row>
+    <row r="13" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B13" s="39"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="39"/>
+      <c r="K13" s="39"/>
+      <c r="L13" s="39"/>
+      <c r="M13" s="39"/>
+      <c r="N13" s="39"/>
+      <c r="P13" s="39"/>
+      <c r="Q13" s="39"/>
+      <c r="R13" s="39"/>
+      <c r="S13" s="39"/>
+      <c r="T13" s="39"/>
+      <c r="U13" s="39"/>
+      <c r="W13" s="39"/>
+      <c r="X13" s="39"/>
+      <c r="Y13" s="39"/>
+      <c r="Z13" s="39"/>
+      <c r="AA13" s="39"/>
+      <c r="AB13" s="39"/>
+      <c r="AD13" s="39"/>
+      <c r="AE13" s="39"/>
+      <c r="AF13" s="39"/>
+      <c r="AG13" s="39"/>
+      <c r="AH13" s="39"/>
+      <c r="AI13" s="39"/>
+      <c r="AK13" s="39"/>
+      <c r="AL13" s="39"/>
+      <c r="AM13" s="39"/>
+      <c r="AN13" s="39"/>
+      <c r="AO13" s="39"/>
+      <c r="AP13" s="39"/>
+      <c r="AR13" s="39"/>
+      <c r="AS13" s="39"/>
+      <c r="AT13" s="39"/>
+      <c r="AU13" s="39"/>
+      <c r="AV13" s="39"/>
+      <c r="AW13" s="39"/>
+    </row>
+    <row r="14" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B14" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="I14" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="J14" s="38"/>
+      <c r="K14" s="38"/>
+      <c r="L14" s="38"/>
+      <c r="M14" s="38"/>
+      <c r="N14" s="38"/>
+      <c r="P14" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q14" s="38"/>
+      <c r="R14" s="38"/>
+      <c r="S14" s="38"/>
+      <c r="T14" s="38"/>
+      <c r="U14" s="38"/>
+      <c r="W14" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="X14" s="38"/>
+      <c r="Y14" s="38"/>
+      <c r="Z14" s="38"/>
+      <c r="AA14" s="38"/>
+      <c r="AB14" s="38"/>
+      <c r="AD14" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE14" s="38"/>
+      <c r="AF14" s="38"/>
+      <c r="AG14" s="38"/>
+      <c r="AH14" s="38"/>
+      <c r="AI14" s="38"/>
+      <c r="AK14" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="AL14" s="38"/>
+      <c r="AM14" s="38"/>
+      <c r="AN14" s="38"/>
+      <c r="AO14" s="38"/>
+      <c r="AP14" s="38"/>
+      <c r="AR14" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="AS14" s="38"/>
+      <c r="AT14" s="38"/>
+      <c r="AU14" s="38"/>
+      <c r="AV14" s="38"/>
+      <c r="AW14" s="38"/>
+    </row>
+    <row r="15" spans="2:49" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="39" t="s">
+        <v>140</v>
+      </c>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
+      <c r="I15" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="J15" s="39"/>
+      <c r="K15" s="39"/>
+      <c r="L15" s="39"/>
+      <c r="M15" s="39"/>
+      <c r="N15" s="39"/>
+      <c r="P15" s="39" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q15" s="39"/>
+      <c r="R15" s="39"/>
+      <c r="S15" s="39"/>
+      <c r="T15" s="39"/>
+      <c r="U15" s="39"/>
+      <c r="W15" s="39" t="s">
+        <v>148</v>
+      </c>
+      <c r="X15" s="39"/>
+      <c r="Y15" s="39"/>
+      <c r="Z15" s="39"/>
+      <c r="AA15" s="39"/>
+      <c r="AB15" s="39"/>
+      <c r="AD15" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="AE15" s="39"/>
+      <c r="AF15" s="39"/>
+      <c r="AG15" s="39"/>
+      <c r="AH15" s="39"/>
+      <c r="AI15" s="39"/>
+      <c r="AK15" s="39" t="s">
+        <v>154</v>
+      </c>
+      <c r="AL15" s="39"/>
+      <c r="AM15" s="39"/>
+      <c r="AN15" s="39"/>
+      <c r="AO15" s="39"/>
+      <c r="AP15" s="39"/>
+      <c r="AR15" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="AS15" s="39"/>
+      <c r="AT15" s="39"/>
+      <c r="AU15" s="39"/>
+      <c r="AV15" s="39"/>
+      <c r="AW15" s="39"/>
+    </row>
+    <row r="16" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B16" s="39"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="39"/>
+      <c r="M16" s="39"/>
+      <c r="N16" s="39"/>
+      <c r="P16" s="39"/>
+      <c r="Q16" s="39"/>
+      <c r="R16" s="39"/>
+      <c r="S16" s="39"/>
+      <c r="T16" s="39"/>
+      <c r="U16" s="39"/>
+      <c r="W16" s="39"/>
+      <c r="X16" s="39"/>
+      <c r="Y16" s="39"/>
+      <c r="Z16" s="39"/>
+      <c r="AA16" s="39"/>
+      <c r="AB16" s="39"/>
+      <c r="AD16" s="39"/>
+      <c r="AE16" s="39"/>
+      <c r="AF16" s="39"/>
+      <c r="AG16" s="39"/>
+      <c r="AH16" s="39"/>
+      <c r="AI16" s="39"/>
+      <c r="AK16" s="39"/>
+      <c r="AL16" s="39"/>
+      <c r="AM16" s="39"/>
+      <c r="AN16" s="39"/>
+      <c r="AO16" s="39"/>
+      <c r="AP16" s="39"/>
+      <c r="AR16" s="39"/>
+      <c r="AS16" s="39"/>
+      <c r="AT16" s="39"/>
+      <c r="AU16" s="39"/>
+      <c r="AV16" s="39"/>
+      <c r="AW16" s="39"/>
+    </row>
+    <row r="17" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B17" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="I17" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="J17" s="38"/>
+      <c r="K17" s="38"/>
+      <c r="L17" s="38"/>
+      <c r="M17" s="38"/>
+      <c r="N17" s="38"/>
+      <c r="P17" s="38"/>
+      <c r="Q17" s="38"/>
+      <c r="R17" s="38"/>
+      <c r="S17" s="38"/>
+      <c r="T17" s="38"/>
+      <c r="U17" s="38"/>
+      <c r="W17" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="X17" s="38"/>
+      <c r="Y17" s="38"/>
+      <c r="Z17" s="38"/>
+      <c r="AA17" s="38"/>
+      <c r="AB17" s="38"/>
+      <c r="AD17" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE17" s="38"/>
+      <c r="AF17" s="38"/>
+      <c r="AG17" s="38"/>
+      <c r="AH17" s="38"/>
+      <c r="AI17" s="38"/>
+      <c r="AK17" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL17" s="38"/>
+      <c r="AM17" s="38"/>
+      <c r="AN17" s="38"/>
+      <c r="AO17" s="38"/>
+      <c r="AP17" s="38"/>
+      <c r="AR17" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="AS17" s="38"/>
+      <c r="AT17" s="38"/>
+      <c r="AU17" s="38"/>
+      <c r="AV17" s="38"/>
+      <c r="AW17" s="38"/>
+    </row>
+    <row r="18" spans="2:49" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="39" t="s">
+        <v>141</v>
+      </c>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="39"/>
+      <c r="I18" s="39" t="s">
+        <v>144</v>
+      </c>
+      <c r="J18" s="39"/>
+      <c r="K18" s="39"/>
+      <c r="L18" s="39"/>
+      <c r="M18" s="39"/>
+      <c r="N18" s="39"/>
+      <c r="P18" s="39"/>
+      <c r="Q18" s="39"/>
+      <c r="R18" s="39"/>
+      <c r="S18" s="39"/>
+      <c r="T18" s="39"/>
+      <c r="U18" s="39"/>
+      <c r="W18" s="39" t="s">
+        <v>149</v>
+      </c>
+      <c r="X18" s="39"/>
+      <c r="Y18" s="39"/>
+      <c r="Z18" s="39"/>
+      <c r="AA18" s="39"/>
+      <c r="AB18" s="39"/>
+      <c r="AD18" s="39" t="s">
+        <v>152</v>
+      </c>
+      <c r="AE18" s="39"/>
+      <c r="AF18" s="39"/>
+      <c r="AG18" s="39"/>
+      <c r="AH18" s="39"/>
+      <c r="AI18" s="39"/>
+      <c r="AK18" s="39" t="s">
+        <v>155</v>
+      </c>
+      <c r="AL18" s="39"/>
+      <c r="AM18" s="39"/>
+      <c r="AN18" s="39"/>
+      <c r="AO18" s="39"/>
+      <c r="AP18" s="39"/>
+      <c r="AR18" s="39" t="s">
+        <v>158</v>
+      </c>
+      <c r="AS18" s="39"/>
+      <c r="AT18" s="39"/>
+      <c r="AU18" s="39"/>
+      <c r="AV18" s="39"/>
+      <c r="AW18" s="39"/>
+    </row>
+    <row r="19" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B19" s="39"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
+    </row>
+    <row r="20" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B20" s="39"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="39"/>
+      <c r="W20" s="36" t="s">
+        <v>159</v>
+      </c>
+      <c r="X20" s="36"/>
+      <c r="Y20" s="36"/>
+      <c r="Z20" s="36"/>
+      <c r="AA20" s="36"/>
+    </row>
+    <row r="21" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="W21" s="36"/>
+      <c r="X21" s="36"/>
+      <c r="Y21" s="36"/>
+      <c r="Z21" s="36"/>
+      <c r="AA21" s="36"/>
+    </row>
+    <row r="22" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="W22" s="36"/>
+      <c r="X22" s="36"/>
+      <c r="Y22" s="36"/>
+      <c r="Z22" s="36"/>
+      <c r="AA22" s="36"/>
+    </row>
+    <row r="26" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B26" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="36"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="36"/>
+      <c r="I26" s="36"/>
+      <c r="J26" s="36"/>
+      <c r="K26" s="36"/>
+      <c r="L26" s="36"/>
+      <c r="M26" s="36"/>
+      <c r="N26" s="36"/>
+      <c r="O26" s="36"/>
+      <c r="P26" s="36"/>
+      <c r="Q26" s="36"/>
+      <c r="R26" s="36"/>
+      <c r="S26" s="36"/>
+      <c r="T26" s="36"/>
+      <c r="U26" s="36"/>
+      <c r="V26" s="36"/>
+      <c r="W26" s="36"/>
+      <c r="X26" s="36"/>
+      <c r="Y26" s="36"/>
+      <c r="Z26" s="36"/>
+      <c r="AA26" s="36"/>
+    </row>
+    <row r="27" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B27" s="36"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="36"/>
+      <c r="J27" s="36"/>
+      <c r="K27" s="36"/>
+      <c r="L27" s="36"/>
+      <c r="M27" s="36"/>
+      <c r="N27" s="36"/>
+      <c r="O27" s="36"/>
+      <c r="P27" s="36"/>
+      <c r="Q27" s="36"/>
+      <c r="R27" s="36"/>
+      <c r="S27" s="36"/>
+      <c r="T27" s="36"/>
+      <c r="U27" s="36"/>
+      <c r="V27" s="36"/>
+      <c r="W27" s="36"/>
+      <c r="X27" s="36"/>
+      <c r="Y27" s="36"/>
+      <c r="Z27" s="36"/>
+      <c r="AA27" s="36"/>
+    </row>
+    <row r="32" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B32" s="36" t="s">
+        <v>160</v>
+      </c>
+      <c r="C32" s="36"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="36"/>
+      <c r="H32" s="36"/>
+      <c r="I32" s="36"/>
+      <c r="J32" s="36"/>
+      <c r="K32" s="36"/>
+      <c r="L32" s="36"/>
+      <c r="M32" s="36"/>
+      <c r="N32" s="36"/>
+      <c r="O32" s="36"/>
+      <c r="P32" s="36"/>
+      <c r="Q32" s="36"/>
+      <c r="R32" s="36"/>
+      <c r="S32" s="36"/>
+      <c r="T32" s="36"/>
+      <c r="U32" s="36"/>
+      <c r="V32" s="36"/>
+      <c r="W32" s="36"/>
+      <c r="X32" s="36"/>
+      <c r="Y32" s="36"/>
+      <c r="Z32" s="36"/>
+      <c r="AA32" s="36"/>
+    </row>
+    <row r="33" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B33" s="36"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="36"/>
+      <c r="I33" s="36"/>
+      <c r="J33" s="36"/>
+      <c r="K33" s="36"/>
+      <c r="L33" s="36"/>
+      <c r="M33" s="36"/>
+      <c r="N33" s="36"/>
+      <c r="O33" s="36"/>
+      <c r="P33" s="36"/>
+      <c r="Q33" s="36"/>
+      <c r="R33" s="36"/>
+      <c r="S33" s="36"/>
+      <c r="T33" s="36"/>
+      <c r="U33" s="36"/>
+      <c r="V33" s="36"/>
+      <c r="W33" s="36"/>
+      <c r="X33" s="36"/>
+      <c r="Y33" s="36"/>
+      <c r="Z33" s="36"/>
+      <c r="AA33" s="36"/>
+    </row>
+    <row r="38" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="W38" s="36" t="s">
+        <v>161</v>
+      </c>
+      <c r="X38" s="36"/>
+      <c r="Y38" s="36"/>
+      <c r="Z38" s="36"/>
+      <c r="AA38" s="36"/>
+      <c r="AB38" s="36"/>
+      <c r="AC38" s="36"/>
+      <c r="AD38" s="36"/>
+      <c r="AE38" s="36"/>
+      <c r="AF38" s="36"/>
+      <c r="AG38" s="36"/>
+      <c r="AH38" s="36"/>
+      <c r="AI38" s="36"/>
+    </row>
+    <row r="39" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="W39" s="36"/>
+      <c r="X39" s="36"/>
+      <c r="Y39" s="36"/>
+      <c r="Z39" s="36"/>
+      <c r="AA39" s="36"/>
+      <c r="AB39" s="36"/>
+      <c r="AC39" s="36"/>
+      <c r="AD39" s="36"/>
+      <c r="AE39" s="36"/>
+      <c r="AF39" s="36"/>
+      <c r="AG39" s="36"/>
+      <c r="AH39" s="36"/>
+      <c r="AI39" s="36"/>
+    </row>
+    <row r="40" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="G40" s="1"/>
+    </row>
+    <row r="44" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="W44" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="X44" s="36"/>
+      <c r="Y44" s="36"/>
+      <c r="Z44" s="36"/>
+      <c r="AA44" s="36"/>
+      <c r="AB44" s="36"/>
+      <c r="AC44" s="36"/>
+      <c r="AD44" s="36"/>
+      <c r="AE44" s="36"/>
+      <c r="AF44" s="36"/>
+      <c r="AG44" s="36"/>
+      <c r="AH44" s="36"/>
+      <c r="AI44" s="36"/>
+    </row>
+    <row r="45" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="W45" s="36"/>
+      <c r="X45" s="36"/>
+      <c r="Y45" s="36"/>
+      <c r="Z45" s="36"/>
+      <c r="AA45" s="36"/>
+      <c r="AB45" s="36"/>
+      <c r="AC45" s="36"/>
+      <c r="AD45" s="36"/>
+      <c r="AE45" s="36"/>
+      <c r="AF45" s="36"/>
+      <c r="AG45" s="36"/>
+      <c r="AH45" s="36"/>
+      <c r="AI45" s="36"/>
+    </row>
+    <row r="50" spans="4:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD50" s="36" t="s">
+        <v>162</v>
+      </c>
+      <c r="AE50" s="36"/>
+      <c r="AF50" s="36"/>
+      <c r="AG50" s="36"/>
+      <c r="AH50" s="36"/>
+      <c r="AI50" s="36"/>
+      <c r="AJ50" s="36"/>
+      <c r="AK50" s="36"/>
+      <c r="AL50" s="36"/>
+      <c r="AM50" s="36"/>
+      <c r="AN50" s="36"/>
+      <c r="AO50" s="36"/>
+      <c r="AP50" s="36"/>
+    </row>
+    <row r="51" spans="4:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD51" s="36"/>
+      <c r="AE51" s="36"/>
+      <c r="AF51" s="36"/>
+      <c r="AG51" s="36"/>
+      <c r="AH51" s="36"/>
+      <c r="AI51" s="36"/>
+      <c r="AJ51" s="36"/>
+      <c r="AK51" s="36"/>
+      <c r="AL51" s="36"/>
+      <c r="AM51" s="36"/>
+      <c r="AN51" s="36"/>
+      <c r="AO51" s="36"/>
+      <c r="AP51" s="36"/>
+    </row>
+    <row r="56" spans="4:49" x14ac:dyDescent="0.25">
+      <c r="AK56" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL56" s="36"/>
+      <c r="AM56" s="36"/>
+      <c r="AN56" s="36"/>
+      <c r="AO56" s="36"/>
+      <c r="AP56" s="36"/>
+      <c r="AQ56" s="36"/>
+      <c r="AR56" s="36"/>
+      <c r="AS56" s="36"/>
+      <c r="AT56" s="36"/>
+      <c r="AU56" s="36"/>
+      <c r="AV56" s="36"/>
+      <c r="AW56" s="36"/>
+    </row>
+    <row r="57" spans="4:49" x14ac:dyDescent="0.25">
+      <c r="AK57" s="36"/>
+      <c r="AL57" s="36"/>
+      <c r="AM57" s="36"/>
+      <c r="AN57" s="36"/>
+      <c r="AO57" s="36"/>
+      <c r="AP57" s="36"/>
+      <c r="AQ57" s="36"/>
+      <c r="AR57" s="36"/>
+      <c r="AS57" s="36"/>
+      <c r="AT57" s="36"/>
+      <c r="AU57" s="36"/>
+      <c r="AV57" s="36"/>
+      <c r="AW57" s="36"/>
+    </row>
+    <row r="61" spans="4:49" x14ac:dyDescent="0.25">
+      <c r="D61" s="37" t="s">
         <v>1</v>
       </c>
+      <c r="E61" s="37"/>
+      <c r="F61" s="37"/>
+      <c r="G61" s="37"/>
+      <c r="H61" s="37"/>
     </row>
   </sheetData>
+  <mergeCells count="73">
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="I11:N11"/>
+    <mergeCell ref="I12:N12"/>
+    <mergeCell ref="I13:N13"/>
+    <mergeCell ref="I14:N14"/>
+    <mergeCell ref="AK5:AO6"/>
+    <mergeCell ref="AR5:AV6"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="B5:F6"/>
+    <mergeCell ref="I5:M6"/>
+    <mergeCell ref="P5:T6"/>
+    <mergeCell ref="W5:AA6"/>
+    <mergeCell ref="AD5:AH6"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="I15:N15"/>
+    <mergeCell ref="I16:N16"/>
+    <mergeCell ref="I17:N17"/>
+    <mergeCell ref="I18:N18"/>
+    <mergeCell ref="P11:U11"/>
+    <mergeCell ref="P12:U12"/>
+    <mergeCell ref="P13:U13"/>
+    <mergeCell ref="P14:U14"/>
+    <mergeCell ref="P15:U15"/>
+    <mergeCell ref="P16:U16"/>
+    <mergeCell ref="AD16:AI16"/>
+    <mergeCell ref="P17:U17"/>
+    <mergeCell ref="P18:U18"/>
+    <mergeCell ref="W11:AB11"/>
+    <mergeCell ref="W12:AB12"/>
+    <mergeCell ref="W13:AB13"/>
+    <mergeCell ref="W14:AB14"/>
+    <mergeCell ref="W15:AB15"/>
+    <mergeCell ref="W16:AB16"/>
+    <mergeCell ref="W17:AB17"/>
+    <mergeCell ref="W18:AB18"/>
+    <mergeCell ref="AR16:AW16"/>
+    <mergeCell ref="AD17:AI17"/>
+    <mergeCell ref="AD18:AI18"/>
+    <mergeCell ref="AK11:AP11"/>
+    <mergeCell ref="AK12:AP12"/>
+    <mergeCell ref="AK13:AP13"/>
+    <mergeCell ref="AK14:AP14"/>
+    <mergeCell ref="AK15:AP15"/>
+    <mergeCell ref="AK16:AP16"/>
+    <mergeCell ref="AK17:AP17"/>
+    <mergeCell ref="AK18:AP18"/>
+    <mergeCell ref="AD11:AI11"/>
+    <mergeCell ref="AD12:AI12"/>
+    <mergeCell ref="AD13:AI13"/>
+    <mergeCell ref="AD14:AI14"/>
+    <mergeCell ref="AD15:AI15"/>
+    <mergeCell ref="AR11:AW11"/>
+    <mergeCell ref="AR12:AW12"/>
+    <mergeCell ref="AR13:AW13"/>
+    <mergeCell ref="AR14:AW14"/>
+    <mergeCell ref="AR15:AW15"/>
+    <mergeCell ref="AR17:AW17"/>
+    <mergeCell ref="AR18:AW18"/>
+    <mergeCell ref="W20:AA22"/>
+    <mergeCell ref="B26:AA27"/>
+    <mergeCell ref="B32:AA33"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="W38:AI39"/>
+    <mergeCell ref="W44:AI45"/>
+    <mergeCell ref="AD50:AP51"/>
+    <mergeCell ref="AK56:AW57"/>
+    <mergeCell ref="D61:H61"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B857D6E-6DDF-4E20-AE1B-9CC2AD666025}">
+  <dimension ref="B2:C37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6" style="4" customWidth="1"/>
+    <col min="2" max="2" width="5.7109375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="114" style="4" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2" s="31" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B3" s="6"/>
+      <c r="C3" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="C6" s="31" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B7" s="6">
+        <v>1</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B8" s="6">
+        <v>2</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B11" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="C11" s="31" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B12" s="12">
+        <v>1</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B13" s="12">
+        <v>2</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B14" s="12">
+        <v>3</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B15" s="12">
+        <v>4</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B16" s="12">
+        <v>5</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="C18" s="31" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="B19" s="12">
+        <v>1</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="B20" s="12">
+        <v>2</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="B21" s="12">
+        <v>3</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B24" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="C24" s="31" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="B25" s="6"/>
+      <c r="C25" s="6" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B28" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="C28" s="31" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B29" s="6"/>
+      <c r="C29" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C37" s="33" t="s">
+        <v>128</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBEFF699-647A-4494-A88F-82995D104BFE}">
+  <dimension ref="A2:E31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.5703125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="64.140625" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" style="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="41"/>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="9"/>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="9">
+        <v>12</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="9">
+        <v>3</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" s="14">
+        <f>(1 - $C$6/$C$5)*100</f>
+        <v>75</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B8" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" s="9"/>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="2"/>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="2"/>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C11" s="9">
+        <v>50</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C12" s="9">
+        <v>200000</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="C13" s="14">
+        <f>$C$12*$C$11%</f>
+        <v>100000</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="11"/>
+      <c r="C14" s="9"/>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15" s="9">
+        <v>10</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B16" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C16" s="17">
+        <f>$C$15 + ($C$15*$C$11%)</f>
+        <v>15</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C17" s="14">
+        <f>($C$16-$C$15)*$C$12</f>
+        <v>1000000</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="11"/>
+      <c r="C18" s="9"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C19" s="9">
+        <v>300000</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C20" s="9">
+        <v>500000</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="C21" s="18">
+        <f>$C$20-$C$19</f>
+        <v>200000</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="C22" s="14">
+        <f>($C$20*(100 + $C$11)%)-$C$19</f>
+        <v>450000</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23" s="2"/>
+    </row>
+    <row r="24" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B24" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="C24" s="21">
+        <f>$C$17+$C$22</f>
+        <v>1450000</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B25" s="2"/>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B26" s="2"/>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B27" s="2"/>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B28" s="2"/>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B29" s="2"/>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B30" s="2"/>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B31" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:C2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9953796C-B279-4EC9-B118-4A79C1EF876F}">
+  <dimension ref="B2:E15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="75.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="42"/>
+    </row>
+    <row r="4" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="9"/>
+    </row>
+    <row r="5" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="9">
+        <v>6</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="9">
+        <v>2</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B7" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="C8" s="14">
+        <f>ROUND(($C$7/12) * ($C$5-$C$6), 0)</f>
+        <v>333333</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="C9" s="14">
+        <f>$C$8*($C$5-$C$6)</f>
+        <v>1333332</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C11" s="9">
+        <v>50</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="E11" s="15"/>
+    </row>
+    <row r="12" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C12" s="9">
+        <v>200000</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="E12" s="15"/>
+    </row>
+    <row r="13" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="C13" s="14">
+        <f>$C$12*$C$11%</f>
+        <v>100000</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="B15" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="C15" s="23">
+        <f>$C$8+$C$9+$C$13</f>
+        <v>1766665</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>107</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:C2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA5A0119-0EC7-42F5-BC85-1EE9FB60EDA9}">
+  <dimension ref="B2:E16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="80" style="2" customWidth="1"/>
+    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="C2" s="42"/>
+    </row>
+    <row r="4" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="C4" s="9">
+        <v>50</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="C5" s="9">
+        <v>10</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B6" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" s="19">
+        <v>2000000</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="B7" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="C7" s="18">
+        <f>$C$6*$C$5</f>
+        <v>20000000</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="B8" s="16"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+    </row>
+    <row r="9" spans="2:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="B9" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="C9" s="18">
+        <f>$C$5+($C$5*50%)</f>
+        <v>15</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="B10" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="C10" s="18">
+        <f>$C$9*$C$6</f>
+        <v>30000000</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="C11" s="14">
+        <f>$C$10-$C$7</f>
+        <v>10000000</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+    </row>
+    <row r="13" spans="2:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="B13" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="C13" s="23">
+        <f>$C$11</f>
+        <v>10000000</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14"/>
+      <c r="E14" s="15"/>
+    </row>
+    <row r="15" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15"/>
+    </row>
+    <row r="16" spans="2:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:C2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A1290F8-FD93-4BA9-9067-84016276698C}">
   <dimension ref="A1:B50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="105" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="105" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="12" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="9"/>
+      <c r="B2" s="11"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="11"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
+        <v>1</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
+        <v>2</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
+        <v>3</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
+        <v>4</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
+        <v>5</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
+        <v>6</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
+        <v>7</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="9"/>
+      <c r="B11" s="11"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="B12" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="26" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="9"/>
+      <c r="B18" s="11"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="11"/>
+    </row>
+    <row r="20" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="9">
         <v>1</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="B20" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="9">
         <v>2</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="B21" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A22" s="9">
         <v>3</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="B22" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A23" s="9">
         <v>4</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>5</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>6</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>7</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="B23" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="9"/>
+      <c r="B24" s="11"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="4" t="s">
+    </row>
+    <row r="26" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="B30" s="26" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="9"/>
+      <c r="B31" s="11"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B32" s="11"/>
+    </row>
+    <row r="33" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A33" s="9">
+        <v>1</v>
+      </c>
+      <c r="B33" s="11" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+    <row r="34" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A34" s="9">
+        <v>2</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A35" s="9">
+        <v>3</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="9"/>
+      <c r="B36" s="11"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="8" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="B37" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A38" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="B42" s="26" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="9"/>
+      <c r="B43" s="11"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B44" s="11"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="9">
         <v>1</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="B45" s="11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="9">
         <v>2</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="B46" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" s="9">
         <v>3</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>4</v>
-      </c>
-      <c r="B23" s="4" t="s">
+      <c r="B47" s="11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="9"/>
+      <c r="B48" s="11"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="8" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B30" s="12" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>1</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>2</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>3</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B42" s="12" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>1</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>2</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>3</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B50" s="4" t="s">
+      <c r="B50" s="11" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1195,27 +4584,29 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9AE82AA-87ED-4E66-BE3A-D9F1FF96959B}">
   <dimension ref="G1:G34"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q7" sqref="Q7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.7109375" customWidth="1"/>
-    <col min="7" max="7" width="67.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="49.140625" customWidth="1"/>
     <col min="8" max="8" width="7.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="7:7" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="7:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G2" s="2" t="s">
+    <row r="1" spans="7:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="7:7" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G2" s="30" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="34" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G34" s="3" t="s">
+      <c r="G34" s="34" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1226,21 +4617,21 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC0736FC-5E3F-4E9E-9089-AF20A8432DDD}">
-  <dimension ref="M51"/>
+  <dimension ref="M56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="13" max="13" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="26.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="51" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M51" s="3" t="s">
+    <row r="56" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M56" s="35" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1248,155 +4639,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E08E8A1-BC03-4FEE-8C08-01F96F3185D5}">
-  <dimension ref="A1:C13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="7.140625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="59.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="75.42578125" style="6" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10">
-        <v>1</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="10">
-        <v>2</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="10">
-        <v>3</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="10">
-        <v>4</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="10">
-        <v>5</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="10">
-        <v>6</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="10">
-        <v>7</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="10">
-        <v>8</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="10">
-        <v>9</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="10">
-        <v>10</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>